--- a/DL-neural-network/Step0 - quick berlin tree analysis/AI tree in berlin.xlsx
+++ b/DL-neural-network/Step0 - quick berlin tree analysis/AI tree in berlin.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D-drive\data Science\st22-active-learn-trees\DL-neural-network\Step0 - quick berlin tree analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6730B72-D4C9-410E-8DA9-17FDB4BFC28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -16,9 +25,6 @@
     <t>Tree type</t>
   </si>
   <si>
-    <t xml:space="preserve">totat number in berlin </t>
-  </si>
-  <si>
     <t xml:space="preserve">Abies </t>
   </si>
   <si>
@@ -206,25 +212,30 @@
   </si>
   <si>
     <t>ZELKOVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tot_number </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="8"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -235,35 +246,48 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -280,7 +304,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="de-DE" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -293,6 +317,7 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -303,718 +328,1854 @@
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tot_number </c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="4285F4"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="EA4335"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FBBC04"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="34A853"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF6D01"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="46BDC6"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="7BAAF7"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="F07B72"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FCD04F"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="71C287"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF994D"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="7ED1D7"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="B3CEFB"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="F7B4AE"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FDE49B"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="AEDCBA"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFC599"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="17"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="B5E5E8"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="18"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="ECF3FE"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="19"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FDECEB"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="20"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFF8E6"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="21"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="EBF6EE"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="22"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFF0E6"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="23"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="EDF8F9"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002F-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="24"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="251701"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000031-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="25"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="032527"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="26"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="010D31"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000035-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="27"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="291121"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000037-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="28"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF1D32"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000039-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="29"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="250D0A"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003B-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="30"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="5F3D05"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003D-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="31"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="0B5D64"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003F-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="32"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="01217D"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000041-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="33"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="652B55"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000043-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="34"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF497E"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000045-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="35"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="5D211C"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000047-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="36"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="976108"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000049-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="37"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="1195A1"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004B-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="38"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="0335C8"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004D-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="39"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="A14589"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004F-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="40"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF75CA"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000051-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="41"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="93352D"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000053-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="42"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="CF850B"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000055-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="43"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="17CFDD"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000057-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="44"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="034B13"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000059-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="45"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="DF5FBC"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005B-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="46"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFA216"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005D-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="47"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="CB493E"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005F-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="48"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="09AB0E"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000061-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="49"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="1E061A"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000063-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="50"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="055F5E"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000065-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="51"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="1B79F0"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000067-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="52"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFCB63"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000069-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="53"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="035B4F"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006B-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="54"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="41CF12"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006D-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="55"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="233F56"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006F-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="56"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="0773AA"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000071-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="57"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="599323"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000073-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="58"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFF7AF"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000075-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="59"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="3B6F60"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000077-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="60"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="79F315"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000079-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="61"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="2B7793"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000007B-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="62"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="0787F5"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000007D-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="63"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000007E-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="64"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000007F-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="65"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000080-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="66"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000081-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="67"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000082-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="68"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000083-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="69"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000084-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="70"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000085-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="71"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000086-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="72"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000087-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="73"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000088-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="74"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000089-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="75"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000008A-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="76"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000008B-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="77"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000008C-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="78"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000008D-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="79"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000008E-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="80"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000008F-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="81"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000090-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="82"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000091-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="83"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000092-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="84"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000093-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="85"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000094-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="86"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000095-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="87"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000096-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="88"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000097-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="89"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000098-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="90"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000099-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="91"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000009A-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="92"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000009B-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="93"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000009C-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="94"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000009D-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="95"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000009E-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="96"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000009F-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="97"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000A0-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="98"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000A1-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="99"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000A2-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="100"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000A3-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="101"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000A4-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="102"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000A5-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="103"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000A6-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="104"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000A7-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="105"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000A8-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="106"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000A9-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="107"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000AA-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="108"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000AB-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="109"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000AC-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="110"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000AD-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="111"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000AE-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="112"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000AF-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="113"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000B0-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="114"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000B1-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="115"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000B2-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="116"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000B3-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="117"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000B4-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="118"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000B5-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="119"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000B6-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="120"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000B7-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="121"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000B8-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="122"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000B9-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="123"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000BA-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="124"/>
-          </c:dPt>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-          </c:dLbls>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000BB-080B-4170-9C60-2006D0A50AE5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$126</c:f>
+              <c:strCache>
+                <c:ptCount val="125"/>
+                <c:pt idx="0">
+                  <c:v>Abies </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ACER </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AESCULUS </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AILANTHUS </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ALNUS </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>AMELANCHIER </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>BETULA </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CARPINUS </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CASTANEA </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CATALPA </c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>CEDRUS </c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>CELTIS </c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>CERCIDIPHYLLUM</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>CERCIS </c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>CHAMAECYPARIS</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>CORYLUS</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>CRATAEGUS</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>ELAEAGNUS</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>FAGUS</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>FRAXINUS</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>GINKGO</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>GLEDITSIA</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>GYMNOCLADUS</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>HIPPOPHAE</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>JUGLANS</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>KOELREUTERIA</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>LARIX</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>LIQUIDAMBAR</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>LIRIODENDRON</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>MAGNOLIA</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>MALUS</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>MESPILUS</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>METASEQUOIA</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>MORUS</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>NOTHOFAGUS</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>NYSSA</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>OSTRYA</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>PARROTIA</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>PAULOWNIA</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>PHELLODENDRON</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>PICEA</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>PINUS</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>PLATANUS</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>POPULUS</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>PRUNUS</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>PSEUDOTSUGA</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>PTEROCARYA</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>PYRUS</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>QUERCUS</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>ROBINIA</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>SALIX</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>SEQUOIADENDRON</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>SOPHORA</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>SORBUS</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>SYRINGA</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>TAXUS</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>TETRADIUM</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>THUJA</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>TILIA</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>TOONA</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>TSUGA</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>ULMUS</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>ZELKOVA</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$126</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="125"/>
+                <c:pt idx="0">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20605</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1048</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12381</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7961</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8485</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5974</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1339</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12293</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1234</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2681</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1470</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1302</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>889</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4208</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>24931</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7768</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8027</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2559</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>38867</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>10896</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1411</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1843</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6019</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>152227</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6921</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>46</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{000000BC-080B-4170-9C60-2006D0A50AE5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1023,6 +2184,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
@@ -1042,16 +2204,24 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1060,9 +2230,15 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="10039350" cy="7000875"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvPr id="2" name="Chart 1" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1071,7 +2247,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1081,7 +2257,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1271,536 +2447,542 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B126"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.5"/>
-    <col customWidth="1" min="2" max="2" width="19.75"/>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>177.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="2">
+        <v>88399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>88399.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1">
+        <v>20605</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>20605.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
-        <v>934.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1">
-        <v>1048.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="1">
-        <v>284.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1">
+        <v>12381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="1">
-        <v>12381.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1">
+        <v>7961</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="1">
-        <v>7961.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="1">
-        <v>170.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="1">
-        <v>236.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="1">
-        <v>82.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="1">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="1">
-        <v>54.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="1">
-        <v>92.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="1">
+        <v>8485</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="1">
-        <v>8485.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="1">
+        <v>5974</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="1">
-        <v>5974.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="B36" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="1">
-        <v>87.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="1">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="1">
-        <v>1339.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="1">
+        <v>12293</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="1">
-        <v>12293.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="B42" s="1">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="1">
-        <v>1234.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="B44" s="1">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="1">
-        <v>2681.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="B46" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="1">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="B48" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="1">
-        <v>33.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="B50" s="1">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="1">
-        <v>778.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="B52" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="1">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="B54" s="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="1">
-        <v>256.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="B56" s="1">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B56" s="1">
-        <v>1470.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="B58" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B58" s="1">
-        <v>72.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="B60" s="1">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B60" s="1">
-        <v>426.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="s">
+      <c r="B62" s="1">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="1">
-        <v>1302.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="B64" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B64" s="1">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="s">
+      <c r="B66" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B66" s="1">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="s">
+      <c r="B68" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B68" s="1">
-        <v>155.0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="s">
+      <c r="B70" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B70" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="s">
+      <c r="B72" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B72" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="s">
+      <c r="B74" s="1">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B74" s="1">
-        <v>482.0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="s">
+      <c r="B76" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B76" s="1">
-        <v>87.0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="s">
+      <c r="B78" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B78" s="1">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="s">
+      <c r="B80" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B80" s="1">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="s">
+      <c r="B82" s="1">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B82" s="1">
-        <v>889.0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="s">
+      <c r="B84" s="1">
+        <v>4208</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B84" s="1">
-        <v>4208.0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="s">
+      <c r="B86" s="1">
+        <v>24931</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B86" s="1">
-        <v>24931.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="s">
+      <c r="B88" s="1">
+        <v>7768</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B88" s="1">
-        <v>7768.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="s">
+      <c r="B90" s="1">
+        <v>8027</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B90" s="1">
-        <v>8027.0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="s">
+      <c r="B92" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B92" s="1">
-        <v>162.0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="s">
+      <c r="B94" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B94" s="1">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="s">
+      <c r="B96" s="1">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B96" s="1">
-        <v>2559.0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="s">
+      <c r="B98" s="2">
+        <v>38867</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B98" s="2">
-        <v>38867.0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="s">
+      <c r="B100" s="1">
+        <v>10896</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B100" s="1">
-        <v>10896.0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="s">
+      <c r="B102" s="1">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B102" s="1">
-        <v>1411.0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="s">
+      <c r="B104" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B104" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="s">
+      <c r="B106" s="1">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B106" s="1">
-        <v>1843.0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="s">
+      <c r="B108" s="1">
+        <v>6019</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B108" s="1">
-        <v>6019.0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="s">
+      <c r="B110" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B110" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="s">
+      <c r="B112" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B112" s="1">
-        <v>121.0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="s">
+      <c r="B114" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B114" s="1">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="s">
+      <c r="B116" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B116" s="1">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="s">
+      <c r="B118" s="2">
+        <v>152227</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B118" s="2">
-        <v>152227.0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="s">
+      <c r="B120" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B120" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="s">
+      <c r="B122" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B122" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="s">
+      <c r="B124" s="1">
+        <v>6921</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B124" s="1">
-        <v>6921.0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="B126" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>